--- a/UI.xlsx
+++ b/UI.xlsx
@@ -517,7 +517,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -531,53 +531,53 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -608,7 +608,7 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -637,7 +637,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -666,7 +666,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -695,7 +695,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -726,7 +726,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -755,7 +755,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -783,10 +783,12 @@
         <v>55</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -816,15 +818,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
